--- a/biology/Microbiologie/Samsonia/Samsonia.xlsx
+++ b/biology/Microbiologie/Samsonia/Samsonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samsonia est un genre de bacilles Gram négatifs (BGN) de la famille des Yersiniaceae.
-L'espèce-type et unique espèce de ce genre est Samsonia erythrinae[1].
-Ces bactéries ont été découvertes dans l'écorce d'arbres infectés du genre Erythrina[2]. Parmi les bactéries phytopathogènes de la famille des Enterobacteriaceae, celles du Samsonia sont probablement les plus proches des espèces du genre Pectobacterium[3].
+L'espèce-type et unique espèce de ce genre est Samsonia erythrinae.
+Ces bactéries ont été découvertes dans l'écorce d'arbres infectés du genre Erythrina. Parmi les bactéries phytopathogènes de la famille des Enterobacteriaceae, celles du Samsonia sont probablement les plus proches des espèces du genre Pectobacterium.
 </t>
         </is>
       </c>
